--- a/info account balance.xlsx
+++ b/info account balance.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,10 +477,18 @@
         <v>44231</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>15000</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44272</v>
+      </c>
+    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>SUM(A3:A15)</f>
-        <v>466800</v>
+        <v>481800</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -489,7 +497,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>SUM(A2-A16)</f>
-        <v>28200</v>
+        <v>13200</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
